--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value222.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value222.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.201692105063165</v>
+        <v>1.317380666732788</v>
       </c>
       <c r="B1">
-        <v>1.290775304618301</v>
+        <v>2.416317224502563</v>
       </c>
       <c r="C1">
-        <v>1.246873780546651</v>
+        <v>4.655238151550293</v>
       </c>
       <c r="D1">
-        <v>1.438706027965259</v>
+        <v>2.548300981521606</v>
       </c>
       <c r="E1">
-        <v>1.90826096375393</v>
+        <v>0.9577957391738892</v>
       </c>
     </row>
   </sheetData>
